--- a/data/trans_dic/P56$amigo-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02387208626997248</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04306272077096541</v>
+        <v>0.0430627207709654</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02650359323486208</v>
@@ -711,7 +711,7 @@
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.01571155817075162</v>
+        <v>0.01603918471191737</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01061386553007945</v>
+        <v>0.01151885237743454</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02095466278562976</v>
+        <v>0.02200217122043558</v>
       </c>
     </row>
     <row r="6">
@@ -749,31 +749,31 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.2044039494677136</v>
+        <v>0.1895377751441194</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1889261497241596</v>
+        <v>0.1902555202008117</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1417558987988525</v>
+        <v>0.1210981523354728</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1083308308156473</v>
+        <v>0.1222170454551897</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1035816413095839</v>
+        <v>0.1059514740138401</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1645362917080272</v>
+        <v>0.1170234502835526</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07976900959476398</v>
+        <v>0.07799705693849623</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06525069256880854</v>
+        <v>0.09459359263567173</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1042558192846457</v>
+        <v>0.1045488713837874</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02203667992871232</v>
+        <v>0.02203667992871231</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01562052876183233</v>
@@ -809,7 +809,7 @@
         <v>0.01837846966945981</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03555541351044178</v>
+        <v>0.03555541351044179</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03921990146578458</v>
@@ -821,7 +821,7 @@
         <v>0.01321739008671535</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03198213289191653</v>
+        <v>0.03198213289191652</v>
       </c>
     </row>
     <row r="8">
@@ -832,36 +832,36 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02828506423362985</v>
+        <v>0.02849572680792272</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.005188231861328564</v>
+        <v>0.00530310773153097</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006856353491317812</v>
+        <v>0.006772359417556169</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01963018131546362</v>
+        <v>0.01899591986649022</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009673466669268325</v>
+        <v>0.009927745290647376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.005026339994612058</v>
+        <v>0.005084109491549268</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01891173613240823</v>
+        <v>0.01740759152762585</v>
       </c>
     </row>
     <row r="9">
@@ -872,36 +872,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2302362210512553</v>
+        <v>0.2291549588433061</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.05895536543763871</v>
+        <v>0.06876430823423429</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06837213788956646</v>
+        <v>0.07841503179385909</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0677532473165145</v>
+        <v>0.06198753911378115</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05610011821383111</v>
+        <v>0.06505706927752139</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05802446819489741</v>
+        <v>0.05842870239447085</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09621843340806624</v>
+        <v>0.0882864986100218</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0461235263798538</v>
+        <v>0.05112832060170994</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04176524233998998</v>
+        <v>0.04523285567402729</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04988499136218804</v>
+        <v>0.04928281695633759</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.01969543572578491</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.03717615998184404</v>
+        <v>0.03717615998184405</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03608766255416745</v>
@@ -960,36 +960,36 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.01385945346027956</v>
+        <v>0.01236858423801795</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01040494868482972</v>
+        <v>0.009626596344775619</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0</v>
+        <v>0.005615903245633764</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02196044001853972</v>
+        <v>0.02159277852515854</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007504810778422361</v>
+        <v>0.007367373766466899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004005950159071041</v>
+        <v>0.004004964221675508</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02350296335789327</v>
+        <v>0.02481337920161776</v>
       </c>
     </row>
     <row r="12">
@@ -1000,36 +1000,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.08186678863477623</v>
+        <v>0.07899752120273411</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05814385693959951</v>
+        <v>0.05795821696181744</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05332688124286409</v>
+        <v>0.04910339140021838</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05547016036116886</v>
+        <v>0.05815760713793084</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04355894820224604</v>
+        <v>0.04179232966067827</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03599789548860702</v>
+        <v>0.03743495573652385</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0557237795047418</v>
+        <v>0.05474552275018014</v>
       </c>
     </row>
     <row r="13">
@@ -1301,7 +1301,7 @@
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1895</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="7">
@@ -1339,31 +1339,31 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>6333</v>
+        <v>5872</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4169</v>
+        <v>4199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5973</v>
+        <v>5102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4461</v>
+        <v>5033</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6159</v>
+        <v>6300</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5748</v>
+        <v>4088</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5070</v>
+        <v>4958</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>4064</v>
+        <v>5891</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>9429</v>
+        <v>9456</v>
       </c>
     </row>
     <row r="8">
@@ -1466,36 +1466,36 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4239</v>
+        <v>4102</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1034</v>
+        <v>1061</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5552</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="11">
@@ -1506,36 +1506,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8154</v>
+        <v>8116</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>4575</v>
+        <v>5336</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4887</v>
+        <v>5605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11051</v>
+        <v>10111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7327</v>
+        <v>8497</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12531</v>
+        <v>12619</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10285</v>
+        <v>9437</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>10156</v>
+        <v>11258</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7585</v>
+        <v>8215</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>14644</v>
+        <v>14468</v>
       </c>
     </row>
     <row r="12">
@@ -1638,36 +1638,36 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>1505</v>
+        <v>1343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2136</v>
+        <v>1976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6049</v>
+        <v>5947</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1998</v>
+        <v>1937</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2129</v>
+        <v>2090</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>977</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9025</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="15">
@@ -1678,36 +1678,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>8889</v>
+        <v>8577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11934</v>
+        <v>11896</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9161</v>
+        <v>8435</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15278</v>
+        <v>16018</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12360</v>
+        <v>11859</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8779</v>
+        <v>9130</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>21398</v>
+        <v>21023</v>
       </c>
     </row>
     <row r="16">
